--- a/biology/Botanique/Beurré_Lebrun/Beurré_Lebrun.xlsx
+++ b/biology/Botanique/Beurré_Lebrun/Beurré_Lebrun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Lebrun</t>
+          <t>Beurré_Lebrun</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Beurré Lebrun est le nom d'une variété de poire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Lebrun</t>
+          <t>Beurré_Lebrun</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La poire Beurré Lebrun est issue d'un semis de M. Gueniot à Troyes, en 1856[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La poire Beurré Lebrun est issue d'un semis de M. Gueniot à Troyes, en 1856,.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Lebrun</t>
+          <t>Beurré_Lebrun</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le Brun[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Brun.
 Beurrée Le Brun.</t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Lebrun</t>
+          <t>Beurré_Lebrun</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,55 +591,62 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Description de l'arbre
-Les rameaux sont courts, de force moyenne, étalés, vert ombré de brun ; ils portent de nombreuses lenticelles bien apparentes.
+          <t>Description de l'arbre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les rameaux sont courts, de force moyenne, étalés, vert ombré de brun ; ils portent de nombreuses lenticelles bien apparentes.
 Les yeux sont de taille moyenne, ovoïdes ou coniques, opprimés.
 L'arbre se révèle vigoureux et fertile. Il doit être greffé sur cognassier et dirigé en formes palissées ou en pyramides.
 Cette variété ne doit pas être élevée sur tige car son fruit se détache avant sa maturité ; elle peut être cultivée dans tous les terrains et dans toutes les régions.
 Elle se révèle résistante à la tavelure.
 Le tronc et les branches ont une écorce fendillée, comme galeuse.
-C'est un fruit d'amateur[4].
-Description du fruit
-Fruit : assez gros, cylindro-conique, très allongé, obtus vers le pédicelle, bosselé dans son pourtour[1].
+C'est un fruit d'amateur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Beurré_Lebrun</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beurr%C3%A9_Lebrun</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Description du fruit</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fruit : assez gros, cylindro-conique, très allongé, obtus vers le pédicelle, bosselé dans son pourtour.
 Épiderme. Fin, mince, d'un jaune verdâtre, pointillé de fauve, plaqué de même couleur aux deux pôles.
 Pédicelle. Assez fort, assez court ou de longueur moyenne, implanté droit ou obliquement à la surface du fruit.
 Œil. Moyen, mi clos, dans une cavité normale et irrégulière.
 Chair. D'un blanc jaunâtre, fine, ferme, fondante, juteuse, à saveur sucrée, relevée, parfumée.
 Qualité : bonne.
 Maturité : octobre.
-Maturité
-De fin septembre à début octobre.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Beurr%C3%A9_Lebrun</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Beurr%C3%A9_Lebrun</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Culture</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cognassier lui convient parfaitement[1] comme porte-greffe.
 </t>
         </is>
       </c>
@@ -634,7 +657,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Lebrun</t>
+          <t>Beurré_Lebrun</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -649,10 +672,82 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Maturité</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De fin septembre à début octobre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Beurré_Lebrun</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beurr%C3%A9_Lebrun</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cognassier lui convient parfaitement comme porte-greffe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Beurré_Lebrun</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beurr%C3%A9_Lebrun</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Très bonne poire à croquer fraiche.
 </t>
